--- a/Paper/Bericht/Bilder/Symmetrie.xlsx
+++ b/Paper/Bericht/Bilder/Symmetrie.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Semester5\T3000\othello\Paper\Bericht\Bilder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D427F96-CA1A-4439-862A-F96725E2D27A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20290D5-BB5C-41A6-9BB0-835889480330}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BE2EF2AF-730A-4790-90E1-B05C89BF2106}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BE2EF2AF-730A-4790-90E1-B05C89BF2106}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>X</t>
   </si>
@@ -518,18 +519,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA541A9-C7DD-42F0-9802-1CE1792BB658}">
-  <dimension ref="F2:N10"/>
+  <dimension ref="F2:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.5703125" style="1"/>
+    <col min="1" max="16384" width="8.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
@@ -554,8 +555,32 @@
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="S2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -583,8 +608,35 @@
       <c r="N3" s="3">
         <v>0</v>
       </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>100</v>
+      </c>
+      <c r="T3" s="4">
+        <v>-25</v>
+      </c>
+      <c r="U3" s="5">
+        <v>25</v>
+      </c>
+      <c r="V3" s="6">
+        <v>10</v>
+      </c>
+      <c r="W3" s="6">
+        <v>10</v>
+      </c>
+      <c r="X3" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>-25</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F4" s="1">
         <v>2</v>
       </c>
@@ -612,8 +664,35 @@
       <c r="N4" s="4">
         <v>1</v>
       </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="T4" s="7">
+        <v>-50</v>
+      </c>
+      <c r="U4" s="8">
+        <v>1</v>
+      </c>
+      <c r="V4" s="11">
+        <v>1</v>
+      </c>
+      <c r="W4" s="11">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>-50</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>-25</v>
+      </c>
     </row>
-    <row r="5" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F5" s="1">
         <v>3</v>
       </c>
@@ -641,8 +720,35 @@
       <c r="N5" s="5">
         <v>2</v>
       </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5">
+        <v>25</v>
+      </c>
+      <c r="T5" s="8">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9">
+        <v>50</v>
+      </c>
+      <c r="V5" s="10">
+        <v>5</v>
+      </c>
+      <c r="W5" s="10">
+        <v>5</v>
+      </c>
+      <c r="X5" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F6" s="1">
         <v>4</v>
       </c>
@@ -670,8 +776,35 @@
       <c r="N6" s="6">
         <v>3</v>
       </c>
+      <c r="R6" s="1">
+        <v>4</v>
+      </c>
+      <c r="S6" s="6">
+        <v>10</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1</v>
+      </c>
+      <c r="U6" s="10">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+      <c r="X6" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F7" s="1">
         <v>5</v>
       </c>
@@ -699,8 +832,35 @@
       <c r="N7" s="6">
         <v>3</v>
       </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="6">
+        <v>10</v>
+      </c>
+      <c r="T7" s="11">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F8" s="1">
         <v>6</v>
       </c>
@@ -728,8 +888,35 @@
       <c r="N8" s="5">
         <v>2</v>
       </c>
+      <c r="R8" s="1">
+        <v>6</v>
+      </c>
+      <c r="S8" s="5">
+        <v>25</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="9">
+        <v>50</v>
+      </c>
+      <c r="V8" s="10">
+        <v>5</v>
+      </c>
+      <c r="W8" s="10">
+        <v>5</v>
+      </c>
+      <c r="X8" s="9">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F9" s="1">
         <v>7</v>
       </c>
@@ -757,8 +944,35 @@
       <c r="N9" s="4">
         <v>1</v>
       </c>
+      <c r="R9" s="1">
+        <v>7</v>
+      </c>
+      <c r="S9" s="4">
+        <v>-25</v>
+      </c>
+      <c r="T9" s="7">
+        <v>-50</v>
+      </c>
+      <c r="U9" s="8">
+        <v>1</v>
+      </c>
+      <c r="V9" s="11">
+        <v>1</v>
+      </c>
+      <c r="W9" s="11">
+        <v>1</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>-50</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>-25</v>
+      </c>
     </row>
-    <row r="10" spans="6:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="6:26" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F10" s="1">
         <v>8</v>
       </c>
@@ -785,9 +999,50 @@
       </c>
       <c r="N10" s="3">
         <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-25</v>
+      </c>
+      <c r="U10" s="5">
+        <v>25</v>
+      </c>
+      <c r="V10" s="6">
+        <v>10</v>
+      </c>
+      <c r="W10" s="6">
+        <v>10</v>
+      </c>
+      <c r="X10" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>-25</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9BA4B1-9CA2-4299-B448-D5A3C8751902}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>